--- a/QMU/APP/dataset/zhuangji-ML-3.11少量数据/撞击-有限元仿真-少量数据.xlsx
+++ b/QMU/APP/dataset/zhuangji-ML-3.11少量数据/撞击-有限元仿真-少量数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\APP\dataset\zhuangji-ML-3.11少量数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5AAA6-DF58-4581-BBCC-C8BE58FB7DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C2E3A-808D-4FB8-9F47-4BEA303FEB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="17655" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="225" windowWidth="17595" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,9 +344,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -951,7 +951,7 @@
         <v>200</v>
       </c>
       <c r="B55">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>200</v>
       </c>
       <c r="B56">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>1.4</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>1.4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>1.4</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>1.4</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,10 +1039,10 @@
         <v>200</v>
       </c>
       <c r="B63">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>200</v>
       </c>
       <c r="B64">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>200</v>
       </c>
       <c r="B65">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>200</v>
       </c>
       <c r="B66">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>200</v>
       </c>
       <c r="B67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1094,87 +1094,87 @@
         <v>200</v>
       </c>
       <c r="B68">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B69">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B70">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B71">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B72">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B73">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B74">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B75">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>300</v>
       </c>
       <c r="B76">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         <v>300</v>
       </c>
       <c r="B77">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>1.4</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>300</v>
       </c>
       <c r="B79">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>300</v>
       </c>
       <c r="B80">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>300</v>
       </c>
       <c r="B81">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>300</v>
       </c>
       <c r="B82">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1259,10 +1259,10 @@
         <v>300</v>
       </c>
       <c r="B83">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>300</v>
       </c>
       <c r="B84">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>300</v>
       </c>
       <c r="B85">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>1.3</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>1.3</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>1.3</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>1.3</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>300</v>
       </c>
       <c r="B90">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>300</v>
       </c>
       <c r="B91">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>300</v>
       </c>
       <c r="B92">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>300</v>
       </c>
       <c r="B93">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>300</v>
       </c>
       <c r="B94">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
         <v>300</v>
       </c>
       <c r="B95">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,10 +1402,10 @@
         <v>300</v>
       </c>
       <c r="B96">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,10 +1413,10 @@
         <v>300</v>
       </c>
       <c r="B97">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,10 +1424,10 @@
         <v>300</v>
       </c>
       <c r="B98">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,10 +1435,10 @@
         <v>300</v>
       </c>
       <c r="B99">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>300</v>
       </c>
       <c r="B101">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>300</v>
       </c>
       <c r="B102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>300</v>
       </c>
       <c r="B103">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>300</v>
       </c>
       <c r="B104">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>300</v>
       </c>
       <c r="B105">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>300</v>
       </c>
       <c r="B106">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>300</v>
       </c>
       <c r="B107">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>1.4</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,7 +1548,7 @@
         <v>1.4</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>1.4</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>1.4</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>300</v>
       </c>
       <c r="B112">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1589,10 +1589,10 @@
         <v>300</v>
       </c>
       <c r="B113">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>300</v>
       </c>
       <c r="B114">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>300</v>
       </c>
       <c r="B115">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>300</v>
       </c>
       <c r="B116">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>300</v>
       </c>
       <c r="B117">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>300</v>
       </c>
       <c r="B118">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>300</v>
       </c>
       <c r="B119">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1666,10 +1666,10 @@
         <v>300</v>
       </c>
       <c r="B120">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,10 +1677,10 @@
         <v>300</v>
       </c>
       <c r="B121">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,10 +1688,10 @@
         <v>300</v>
       </c>
       <c r="B122">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,10 +1699,10 @@
         <v>300</v>
       </c>
       <c r="B123">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
         <v>300</v>
       </c>
       <c r="B124">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,10 +1721,10 @@
         <v>300</v>
       </c>
       <c r="B125">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>300</v>
       </c>
       <c r="B126">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         <v>300</v>
       </c>
       <c r="B127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,10 +1754,10 @@
         <v>300</v>
       </c>
       <c r="B128">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,10 +1765,10 @@
         <v>300</v>
       </c>
       <c r="B129">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,10 +1776,10 @@
         <v>300</v>
       </c>
       <c r="B130">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>300</v>
       </c>
       <c r="B131">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -1798,10 +1798,10 @@
         <v>300</v>
       </c>
       <c r="B132">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,10 +1809,10 @@
         <v>300</v>
       </c>
       <c r="B133">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,10 +1820,10 @@
         <v>300</v>
       </c>
       <c r="B134">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>300</v>
       </c>
       <c r="B135">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,18 +1842,18 @@
         <v>300</v>
       </c>
       <c r="B136">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B137">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -1861,65 +1861,65 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B138">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B139">
         <v>1.4</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B140">
         <v>1.4</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B141">
         <v>1.4</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B142">
         <v>1.4</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B143">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -1927,21 +1927,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B144">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B145">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B146">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -1960,46 +1960,46 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B147">
         <v>1.3</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B148">
         <v>1.3</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B149">
         <v>1.3</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B150">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,10 +2007,10 @@
         <v>400</v>
       </c>
       <c r="B151">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,10 +2018,10 @@
         <v>400</v>
       </c>
       <c r="B152">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,10 +2029,10 @@
         <v>400</v>
       </c>
       <c r="B153">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2040,10 +2040,10 @@
         <v>400</v>
       </c>
       <c r="B154">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,10 +2051,10 @@
         <v>400</v>
       </c>
       <c r="B155">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,10 +2062,10 @@
         <v>400</v>
       </c>
       <c r="B156">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2073,10 +2073,10 @@
         <v>400</v>
       </c>
       <c r="B157">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2084,10 +2084,10 @@
         <v>400</v>
       </c>
       <c r="B158">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>400</v>
       </c>
       <c r="B159">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>400</v>
       </c>
       <c r="B160">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>400</v>
       </c>
       <c r="B161">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
         <v>400</v>
       </c>
       <c r="B162">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>400</v>
       </c>
       <c r="B163">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>400</v>
       </c>
       <c r="B164">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>400</v>
       </c>
       <c r="B165">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,10 +2172,10 @@
         <v>400</v>
       </c>
       <c r="B166">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,10 +2183,10 @@
         <v>400</v>
       </c>
       <c r="B167">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>400</v>
       </c>
       <c r="B168">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>400</v>
       </c>
       <c r="B169">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,10 +2216,10 @@
         <v>400</v>
       </c>
       <c r="B170">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,10 +2227,10 @@
         <v>400</v>
       </c>
       <c r="B171">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,10 +2238,10 @@
         <v>400</v>
       </c>
       <c r="B172">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,10 +2249,10 @@
         <v>400</v>
       </c>
       <c r="B173">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,10 +2260,10 @@
         <v>400</v>
       </c>
       <c r="B174">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>400</v>
       </c>
       <c r="B175">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>400</v>
       </c>
       <c r="B176">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,10 +2293,10 @@
         <v>400</v>
       </c>
       <c r="B177">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,10 +2304,10 @@
         <v>400</v>
       </c>
       <c r="B178">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,10 +2315,10 @@
         <v>400</v>
       </c>
       <c r="B179">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>400</v>
       </c>
       <c r="B180">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>400</v>
       </c>
       <c r="B181">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>400</v>
       </c>
       <c r="B182">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>400</v>
       </c>
       <c r="B183">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,10 +2370,10 @@
         <v>400</v>
       </c>
       <c r="B184">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,10 +2381,10 @@
         <v>400</v>
       </c>
       <c r="B185">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,10 +2392,10 @@
         <v>400</v>
       </c>
       <c r="B186">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>400</v>
       </c>
       <c r="B187">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -2414,7 +2414,7 @@
         <v>400</v>
       </c>
       <c r="B188">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>400</v>
       </c>
       <c r="B189">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,10 +2436,10 @@
         <v>400</v>
       </c>
       <c r="B190">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,7 +2450,7 @@
         <v>1.4</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>1.4</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>1.4</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>400</v>
       </c>
       <c r="B194">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -2491,7 +2491,7 @@
         <v>400</v>
       </c>
       <c r="B195">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>400</v>
       </c>
       <c r="B196">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>400</v>
       </c>
       <c r="B197">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>400</v>
       </c>
       <c r="B198">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>1.3</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>400</v>
       </c>
       <c r="B200">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>400</v>
       </c>
       <c r="B201">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2568,10 @@
         <v>400</v>
       </c>
       <c r="B202">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,10 +2579,10 @@
         <v>400</v>
       </c>
       <c r="B203">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,9 +2590,240 @@
         <v>400</v>
       </c>
       <c r="B204">
+        <v>1.5</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>400</v>
+      </c>
+      <c r="B205">
+        <v>1.5</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>400</v>
+      </c>
+      <c r="B206">
+        <v>1.5</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>400</v>
+      </c>
+      <c r="B207">
+        <v>1.4</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>400</v>
+      </c>
+      <c r="B208">
+        <v>1.4</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>400</v>
+      </c>
+      <c r="B209">
+        <v>1.4</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>400</v>
+      </c>
+      <c r="B210">
+        <v>1.4</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>400</v>
+      </c>
+      <c r="B211">
+        <v>1.4</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>400</v>
+      </c>
+      <c r="B212">
+        <v>1.4</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>400</v>
+      </c>
+      <c r="B213">
+        <v>1.4</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>400</v>
+      </c>
+      <c r="B214">
+        <v>1.4</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>400</v>
+      </c>
+      <c r="B215">
+        <v>1.4</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>400</v>
+      </c>
+      <c r="B216">
+        <v>1.4</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>400</v>
+      </c>
+      <c r="B217">
+        <v>1.4</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>400</v>
+      </c>
+      <c r="B218">
+        <v>1.3</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>400</v>
+      </c>
+      <c r="B219">
+        <v>1.3</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>400</v>
+      </c>
+      <c r="B220">
+        <v>1.3</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>400</v>
+      </c>
+      <c r="B221">
+        <v>1.3</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>400</v>
+      </c>
+      <c r="B222">
+        <v>1.3</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>400</v>
+      </c>
+      <c r="B223">
+        <v>1.3</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>400</v>
+      </c>
+      <c r="B224">
+        <v>1.3</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>400</v>
+      </c>
+      <c r="B225">
         <v>1.2</v>
       </c>
-      <c r="C204">
+      <c r="C225">
         <v>0</v>
       </c>
     </row>
